--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B4630-8C11-42FB-968C-62C47C1CF8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A50BFF8-BB8A-4BEC-B99E-DF84CDED674B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27540" yWindow="10770" windowWidth="13725" windowHeight="6585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="175">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,10 +648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MoreDice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DoubleDice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,6 +784,42 @@
   </si>
   <si>
     <t>Animations/FieldItem/Box.controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiceBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZeroDiceBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneOrSixDiceBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusDiceEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDiceChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneOrSix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OddDiceBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,7 +1369,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1346,7 +1378,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1629,42 +1661,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -1749,7 +1781,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -1769,7 +1801,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -1786,7 +1818,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -1803,7 +1835,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1820,7 +1852,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1837,7 +1869,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -1854,7 +1886,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -1871,7 +1903,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
@@ -1888,7 +1920,7 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -1905,7 +1937,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -1922,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
@@ -1939,7 +1971,7 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
@@ -1956,7 +1988,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -1973,7 +2005,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
@@ -1990,7 +2022,7 @@
         <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
         <v>92</v>
@@ -2007,7 +2039,7 @@
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
         <v>93</v>
@@ -2024,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
@@ -2041,7 +2073,7 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
@@ -2058,7 +2090,7 @@
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
         <v>105</v>
@@ -2075,7 +2107,7 @@
         <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
@@ -2140,16 +2172,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
         <v>118</v>
       </c>
       <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
         <v>136</v>
-      </c>
-      <c r="D27" t="s">
-        <v>137</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2163,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2211,7 +2243,7 @@
         <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -2228,7 +2260,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2263,6 +2295,34 @@
       </c>
       <c r="D6" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2274,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2307,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>113</v>
@@ -2318,16 +2378,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A50BFF8-BB8A-4BEC-B99E-DF84CDED674B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F307DFF7-8B3A-4955-B5E4-56D7B7F34265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -73,24 +73,30 @@
 댓글:
     아이템 타입
 랜덤: 레시피의 여러개 중 확률에 따라 드롭 
-노말: 그 아이템만 드롭</t>
+노말: 그 아이템만 드롭
+Barricade: 부딪히면 멈춤
+NextDiceOperationBuff: 다이스에 추가 계산 (곱하기, 나누기, 마이너스 등)
+NextDiceChangeBuff: 다이스 고정 효과 (짝수, 홀수, 도박 등)</t>
       </text>
     </comment>
     <comment ref="D2" authorId="3" shapeId="0" xr:uid="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
       <text>
-        <t>[스레드 댓글]
+        <t xml:space="preserve">[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
-    랜덤: 알맞은 레시피 코드 입력
-노말: -1
-답글:
-Random :
-확률의 합은 100.
+    랜덤
+: 확률의 합은 100.
 각 확률은 정수.
 원하는 드롭 확률을 게재
 소수점 확률이 필요하다면 확률 합 1000 등으로 변경 요청
-답글:
-Normal : -1</t>
+노말
+: 개수 입력
+Min/Max 는 배치 가능한 아이템임. 배치 가능한 범위 표시.
+Min/Max/(값)
+: (값)에 각 타입에 알맞은 파라미터 입력
+- Barricade: 값 입력하지 않음
+- NextDiceOperationBuff: *:2, /:2 , *:-1 등
+</t>
       </text>
     </comment>
   </commentList>
@@ -125,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="176">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,10 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Min:-15/Max:15/-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Barricade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -787,10 +789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ZeroDiceBuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -803,14 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BonusDiceEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextDiceChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OneOrSix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,6 +810,26 @@
   </si>
   <si>
     <t>Odd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDiceOperationBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDiceChangeBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/Odd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/*:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +903,6 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="박솔휘 [Park, Solhwi]" id="{F27374D2-18FB-4CF0-8D4B-9BCAFBCC878C}" userId="S::psh50zmfhtm@neople.co.kr::763decc3-e1b2-4a9c-a8c1-b8eff7c54800" providerId="AD"/>
   <person displayName="유지현" id="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" userId="S::C011128@mail.hongik.ac.kr::eee9a582-c747-4bd0-8e73-515c3b4ae647" providerId="AD"/>
 </personList>
 </file>
@@ -1170,25 +1179,25 @@
   <threadedComment ref="C2" dT="2024-06-22T16:23:26.79" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{53EA8211-947F-4421-B36A-916C864FC3A5}">
     <text>아이템 타입
 랜덤: 레시피의 여러개 중 확률에 따라 드롭 
-노말: 그 아이템만 드롭</text>
+노말: 그 아이템만 드롭
+Barricade: 부딪히면 멈춤
+NextDiceOperationBuff: 다이스에 추가 계산 (곱하기, 나누기, 마이너스 등)
+NextDiceChangeBuff: 다이스 고정 효과 (짝수, 홀수, 도박 등)</text>
   </threadedComment>
   <threadedComment ref="D2" dT="2024-06-22T16:23:51.80" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
-    <text xml:space="preserve">랜덤: 알맞은 레시피 코드 입력
-노말: -1
-</text>
-  </threadedComment>
-  <threadedComment ref="D2" dT="2024-06-26T14:27:31.33" personId="{F27374D2-18FB-4CF0-8D4B-9BCAFBCC878C}" id="{DEB94CC5-BD6F-449F-940F-1ECE5E796577}" parentId="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
-    <text xml:space="preserve">
-Random :
-확률의 합은 100.
+    <text xml:space="preserve">랜덤
+: 확률의 합은 100.
 각 확률은 정수.
 원하는 드롭 확률을 게재
 소수점 확률이 필요하다면 확률 합 1000 등으로 변경 요청
+노말
+: 개수 입력
+Min/Max 는 배치 가능한 아이템임. 배치 가능한 범위 표시.
+Min/Max/(값)
+: (값)에 각 타입에 알맞은 파라미터 입력
+- Barricade: 값 입력하지 않음
+- NextDiceOperationBuff: *:2, /:2 , *:-1 등
 </text>
-  </threadedComment>
-  <threadedComment ref="D2" dT="2024-06-26T14:38:45.91" personId="{F27374D2-18FB-4CF0-8D4B-9BCAFBCC878C}" id="{ECF013F5-3C3A-4C7D-8C79-5E9D8D2706E2}" parentId="{780ED352-B9AB-4AEE-AA4E-A530552E9099}">
-    <text xml:space="preserve">
-Normal : -1</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1355,7 +1364,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1364,12 +1373,12 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1378,7 +1387,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1661,42 +1670,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -1781,7 +1790,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -1801,7 +1810,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -1818,7 +1827,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -1835,7 +1844,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1852,7 +1861,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1869,7 +1878,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -1886,7 +1895,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -1903,7 +1912,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
@@ -1920,7 +1929,7 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -1937,7 +1946,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -1954,7 +1963,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
@@ -1971,7 +1980,7 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
@@ -1988,7 +1997,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -2005,7 +2014,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
@@ -2022,7 +2031,7 @@
         <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
         <v>92</v>
@@ -2039,7 +2048,7 @@
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
         <v>93</v>
@@ -2056,7 +2065,7 @@
         <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
@@ -2073,7 +2082,7 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
@@ -2090,7 +2099,7 @@
         <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
         <v>105</v>
@@ -2107,7 +2116,7 @@
         <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
@@ -2155,16 +2164,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
         <v>124</v>
       </c>
-      <c r="B26" t="s">
-        <v>125</v>
-      </c>
       <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
         <v>127</v>
-      </c>
-      <c r="D26" t="s">
-        <v>128</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2172,16 +2181,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
         <v>118</v>
       </c>
       <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
         <v>135</v>
-      </c>
-      <c r="D27" t="s">
-        <v>136</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2195,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2208,9 +2217,10 @@
     <col min="3" max="3" width="33.125" customWidth="1"/>
     <col min="4" max="4" width="37.375" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2223,8 +2233,11 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2237,13 +2250,16 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -2251,16 +2267,19 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2268,60 +2287,58 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
         <v>124</v>
       </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
       <c r="C6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
         <v>124</v>
       </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
       <c r="C7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7">
         <v>-1</v>
       </c>
     </row>
@@ -2334,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2346,9 +2363,10 @@
     <col min="2" max="2" width="48.75" customWidth="1"/>
     <col min="3" max="3" width="32.25" customWidth="1"/>
     <col min="4" max="4" width="43.75" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2356,18 +2374,21 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>113</v>
@@ -2375,61 +2396,76 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
         <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F307DFF7-8B3A-4955-B5E4-56D7B7F34265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9BA683-4D25-4E74-810B-076A2A14B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="195">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,26 +789,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZeroDiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OneOrSixDiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OneOrSix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OddDiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Odd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,11 +809,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Min:-100/Max:100/*:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effectPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/Barricade.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/DoubleDiceBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/MinusDiceBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HalfDiceBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/HalfDiceBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrunkBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/DrunkBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OddBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/OddBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvenBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/EvenBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/*:-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/Even</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/OneOrSix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/*:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/*:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinusDiceBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinusDice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HalfDice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Even</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*:-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleDiceBuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2204,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2251,7 +2327,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2270,9 +2349,6 @@
       <c r="E3">
         <v>-1</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2296,7 +2372,7 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>123</v>
@@ -2310,16 +2386,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -2327,18 +2403,86 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>166</v>
       </c>
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7">
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11">
         <v>-1</v>
       </c>
     </row>
@@ -2351,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2397,21 +2541,21 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2419,16 +2563,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -2436,16 +2580,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -2453,18 +2597,52 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8">
         <v>-1</v>
       </c>
     </row>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9BA683-4D25-4E74-810B-076A2A14B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA738616-7DD7-4D91-849E-07F9C80751C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="194">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
   </si>
   <si>
     <t>#상점템 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#필드 배치 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1297,44 +1293,44 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1345,13 +1341,13 @@
         <v>30000</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1362,15 +1358,15 @@
         <v>50000</v>
       </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1379,12 +1375,12 @@
         <v>50000</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1393,12 +1389,12 @@
         <v>30000</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1407,12 +1403,12 @@
         <v>30000</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1421,12 +1417,12 @@
         <v>30000</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1435,12 +1431,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>123</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1449,12 +1445,12 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1463,7 +1459,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1480,18 +1476,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1524,167 +1520,167 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1701,15 +1697,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1725,7 +1721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1733,55 +1729,55 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>137</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>138</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>139</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>140</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1798,16 +1794,16 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="38.25" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1821,452 +1817,452 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
         <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
         <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
       </c>
       <c r="E16">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
-        <v>119</v>
-      </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
         <v>116</v>
       </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
       <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
         <v>120</v>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
       </c>
       <c r="E25">
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
         <v>123</v>
       </c>
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
       <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
         <v>126</v>
-      </c>
-      <c r="D26" t="s">
-        <v>127</v>
       </c>
       <c r="E26">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>134</v>
-      </c>
-      <c r="D27" t="s">
-        <v>135</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2280,23 +2276,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="60.75" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" customWidth="1"/>
+    <col min="3" max="3" width="33.09765625" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2313,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2321,27 +2317,24 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -2350,137 +2343,137 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
         <v>168</v>
-      </c>
-      <c r="D10" t="s">
-        <v>169</v>
       </c>
       <c r="E10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -2497,20 +2490,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1"/>
-    <col min="2" max="2" width="48.75" customWidth="1"/>
-    <col min="3" max="3" width="32.25" customWidth="1"/>
-    <col min="4" max="4" width="43.75" customWidth="1"/>
+    <col min="1" max="1" width="37.59765625" customWidth="1"/>
+    <col min="2" max="2" width="48.69921875" customWidth="1"/>
+    <col min="3" max="3" width="32.19921875" customWidth="1"/>
+    <col min="4" max="4" width="43.69921875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2527,120 +2520,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
         <v>174</v>
       </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
         <v>176</v>
       </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" t="s">
         <v>178</v>
       </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" t="s">
         <v>180</v>
       </c>
-      <c r="B8" t="s">
-        <v>181</v>
-      </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -2661,55 +2654,55 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="27.8984375" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA738616-7DD7-4D91-849E-07F9C80751C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB37CD72-B1D4-4DC1-9E82-B8EE1D8EC019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -1293,16 +1293,16 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" customWidth="1"/>
-    <col min="4" max="4" width="33.59765625" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -1476,18 +1476,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" customWidth="1"/>
-    <col min="2" max="2" width="38.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1697,15 +1697,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -1794,16 +1794,16 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="25.8984375" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -2279,20 +2279,20 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" customWidth="1"/>
-    <col min="3" max="3" width="33.09765625" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="60.75" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>190</v>
       </c>
@@ -2494,16 +2494,16 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.59765625" customWidth="1"/>
-    <col min="2" max="2" width="48.69921875" customWidth="1"/>
-    <col min="3" max="3" width="32.19921875" customWidth="1"/>
-    <col min="4" max="4" width="43.69921875" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="48.75" customWidth="1"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
+    <col min="4" max="4" width="43.75" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -2654,13 +2654,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.8984375" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB37CD72-B1D4-4DC1-9E82-B8EE1D8EC019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2CB077-EB8B-444A-B824-56C84B6992D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="190">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,19 +646,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>*:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffIconAssetPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DoubleDice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffIconAssetPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoubleDice</t>
   </si>
   <si>
     <t>두배 주사위 버프</t>
@@ -874,18 +870,6 @@
   </si>
   <si>
     <t>MinusDiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinusDice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HalfDice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drunk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1450,7 +1434,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1459,7 +1443,7 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1742,42 +1726,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1862,7 +1846,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -1882,7 +1866,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -1899,7 +1883,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -1916,7 +1900,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -1933,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1950,7 +1934,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
@@ -1967,7 +1951,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
@@ -1984,7 +1968,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -2001,7 +1985,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -2018,7 +2002,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
@@ -2035,7 +2019,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -2052,7 +2036,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
@@ -2069,7 +2053,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
         <v>81</v>
@@ -2086,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
@@ -2103,7 +2087,7 @@
         <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -2120,7 +2104,7 @@
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
@@ -2137,7 +2121,7 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
         <v>102</v>
@@ -2154,7 +2138,7 @@
         <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
@@ -2171,7 +2155,7 @@
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
         <v>104</v>
@@ -2188,7 +2172,7 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
         <v>105</v>
@@ -2253,16 +2237,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
         <v>117</v>
       </c>
       <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
         <v>133</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2278,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2323,7 +2307,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2331,7 +2315,7 @@
         <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2348,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2365,7 +2349,7 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>122</v>
@@ -2379,16 +2363,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -2396,16 +2380,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -2413,16 +2397,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -2430,16 +2414,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -2447,16 +2431,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
         <v>167</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -2464,16 +2448,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -2491,7 +2475,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A8" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2525,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -2534,21 +2518,21 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2556,16 +2540,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -2573,16 +2557,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
         <v>173</v>
       </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -2590,16 +2574,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
         <v>175</v>
       </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -2607,16 +2591,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
         <v>177</v>
       </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -2624,16 +2608,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
         <v>179</v>
       </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E8">
         <v>-1</v>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2CB077-EB8B-444A-B824-56C84B6992D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2949797B-1489-48B0-994F-51B5BE418747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -887,6 +887,27 @@
   <si>
     <t>DoubleDiceBuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR3 Magic Aura A (Runic).prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR4 Magic Aura A (Runic).prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR5 Magic Aura A (Runic).prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR6 Magic Aura A (Runic).prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR7 Magic Aura A (Runic).prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR8 Magic Aura A (Runic).prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR9 Magic Aura A (Runic).prefab</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2284,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2357,8 +2378,8 @@
       <c r="D5" t="s">
         <v>127</v>
       </c>
-      <c r="E5">
-        <v>-1</v>
+      <c r="E5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2374,8 +2395,8 @@
       <c r="D6" t="s">
         <v>180</v>
       </c>
-      <c r="E6">
-        <v>-1</v>
+      <c r="E6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2391,8 +2412,8 @@
       <c r="D7" t="s">
         <v>183</v>
       </c>
-      <c r="E7">
-        <v>-1</v>
+      <c r="E7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2408,8 +2429,8 @@
       <c r="D8" t="s">
         <v>184</v>
       </c>
-      <c r="E8">
-        <v>-1</v>
+      <c r="E8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2425,8 +2446,8 @@
       <c r="D9" t="s">
         <v>182</v>
       </c>
-      <c r="E9">
-        <v>-1</v>
+      <c r="E9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2442,8 +2463,8 @@
       <c r="D10" t="s">
         <v>167</v>
       </c>
-      <c r="E10">
-        <v>-1</v>
+      <c r="E10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2459,8 +2480,8 @@
       <c r="D11" t="s">
         <v>181</v>
       </c>
-      <c r="E11">
-        <v>-1</v>
+      <c r="E11" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2949797B-1489-48B0-994F-51B5BE418747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026E0103-7450-42B3-AB6B-E756EC61ADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="190">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,38 +582,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Banana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DropCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Banana2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ShopItem_l_CoinPack_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Icon_GradeBadge_Challenger.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바나나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>녹색 바나나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹색인 바나나다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맛있는 바나나!\n… 를 먹고 남은 껍질이에요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,22 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/ItemIcon_Chest_Wood.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감쪽같은 가짜 보물상자예요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가짜 보물상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무도 그냥 지나칠 수 없는 가짜 보물상자. 열어보기 전까지는 모른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Min:-100/Max:100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,17 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DoubleDice</t>
-  </si>
-  <si>
-    <t>두배 주사위 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>두배두배</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -889,25 +838,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>낙상 주의! 밟으면 무조건 넘어집니다. 무조건!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 두 배 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 음수 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR3 Magic Aura A (Runic).prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR4 Magic Aura A (Runic).prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR5 Magic Aura A (Runic).prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR6 Magic Aura A (Runic).prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR7 Magic Aura A (Runic).prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR8 Magic Aura A (Runic).prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR9 Magic Aura A (Runic).prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 반감 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수 주사위 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수 주사위 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음주!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1292,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1427,7 +1407,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1436,12 +1416,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1450,21 +1430,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1747,42 +1713,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1793,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1847,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1867,7 +1833,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -1887,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -1904,7 +1870,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -1921,7 +1887,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -1938,7 +1904,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1955,7 +1921,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
@@ -1972,7 +1938,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
@@ -1989,7 +1955,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -2006,7 +1972,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -2023,7 +1989,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
@@ -2040,7 +2006,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -2057,7 +2023,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
@@ -2074,7 +2040,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>81</v>
@@ -2091,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
@@ -2108,7 +2074,7 @@
         <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -2125,7 +2091,7 @@
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
@@ -2142,7 +2108,7 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
         <v>102</v>
@@ -2159,7 +2125,7 @@
         <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
@@ -2176,7 +2142,7 @@
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
         <v>104</v>
@@ -2193,7 +2159,7 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>105</v>
@@ -2207,16 +2173,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2224,16 +2190,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2241,16 +2207,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2258,18 +2224,69 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="E27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30">
         <v>1000</v>
       </c>
     </row>
@@ -2283,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2328,15 +2345,15 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2353,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2367,121 +2384,121 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
         <v>180</v>
-      </c>
-      <c r="E6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
         <v>170</v>
       </c>
-      <c r="C7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" t="s">
-        <v>183</v>
-      </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2530,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -2539,21 +2556,21 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2561,16 +2578,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -2578,16 +2595,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -2595,16 +2612,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -2612,16 +2629,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -2629,16 +2646,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>-1</v>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026E0103-7450-42B3-AB6B-E756EC61ADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71961318-989F-4276-81A3-225671FB3CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="191">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,311 +582,315 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>바나나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있는 바나나!\n… 를 먹고 남은 껍질이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barricade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffIconAssetPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두배두배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickAx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shovel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umbrella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Frame_01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Profile/Frame_02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Acc_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Acc_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Acc_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Hair_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Hair_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Hair_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Eye_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Eye_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Eye_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Face_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Face_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Costume_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Costume_B.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Costume_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Face_A.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon_Badge_Gold.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/FieldItem/Box.controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneOrSix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDiceOperationBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDiceChangeBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/Odd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/Barricade.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/DoubleDiceBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/MinusDiceBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HalfDiceBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/HalfDiceBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrunkBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/DrunkBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OddBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/OddBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvenBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/EvenBuff.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/*:-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/Even</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/OneOrSix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/*:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min:-100/Max:100/*:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinusDiceBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Even</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*:-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleDiceBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙상 주의! 밟으면 무조건 넘어집니다. 무조건!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 두 배 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 음수 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR3 Magic Aura A (Runic).prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 반감 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수 주사위 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수 주사위 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음주!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DropCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바나나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛있는 바나나!\n… 를 먹고 남은 껍질이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barricade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min:-100/Max:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffActionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffIconAssetPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두배두배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PickAx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shovel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Umbrella</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Profile/Profile_01.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Profile/Profile_02.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Profile/Frame_01.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Profile/Frame_02.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Acc_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Acc_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Acc_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Hair_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Hair_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Hair_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Eye_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Eye_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Eye_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Face_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Face_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Prop_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Prop_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Costume_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Costume_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Costume_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon/Face_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/ItemIcon_Badge_Gold.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Animations/FieldItem/Box.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OneOrSix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Odd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextDiceOperationBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextDiceChangeBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min:-100/Max:100/Odd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/SpecialItem/Barricade.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/SpecialItem/DoubleDiceBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/SpecialItem/MinusDiceBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HalfDiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/SpecialItem/HalfDiceBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrunkBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/SpecialItem/DrunkBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OddBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/SpecialItem/OddBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvenBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/SpecialItem/EvenBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min:-100/Max:100/*:-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min:-100/Max:100/Even</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min:-100/Max:100/OneOrSix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min:-100/Max:100/*:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min:-100/Max:100/*:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinusDiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Even</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*:-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoubleDiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙상 주의! 밟으면 무조건 넘어집니다. 무조건!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사위 두 배 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사위 음수 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR3 Magic Aura A (Runic).prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사위 반감 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀수 주사위 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짝수 주사위 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음주!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짝수</t>
+    <t>Coin:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1407,7 +1411,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1416,12 +1420,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1430,7 +1434,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1713,42 +1717,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1833,7 +1837,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -1853,7 +1857,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -1870,7 +1874,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -1887,7 +1891,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -1904,7 +1908,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1921,7 +1925,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
@@ -1938,7 +1942,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
@@ -1955,7 +1959,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -1972,7 +1976,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -1989,7 +1993,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
@@ -2006,7 +2010,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -2023,7 +2027,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
@@ -2040,7 +2044,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
         <v>81</v>
@@ -2057,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
@@ -2074,7 +2078,7 @@
         <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -2091,7 +2095,7 @@
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
@@ -2108,7 +2112,7 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
         <v>102</v>
@@ -2125,7 +2129,7 @@
         <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
@@ -2142,7 +2146,7 @@
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
         <v>104</v>
@@ -2159,7 +2163,7 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
         <v>105</v>
@@ -2173,16 +2177,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2190,16 +2194,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2207,16 +2211,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2224,16 +2228,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
         <v>159</v>
       </c>
-      <c r="B27" t="s">
-        <v>160</v>
-      </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2241,16 +2245,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
         <v>161</v>
       </c>
-      <c r="B28" t="s">
-        <v>162</v>
-      </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2258,16 +2262,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
         <v>163</v>
       </c>
-      <c r="B29" t="s">
-        <v>164</v>
-      </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29">
         <v>1000</v>
@@ -2275,16 +2279,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
         <v>165</v>
       </c>
-      <c r="B30" t="s">
-        <v>166</v>
-      </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30">
         <v>1000</v>
@@ -2300,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2345,21 +2349,21 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>3</v>
+      <c r="D3" t="s">
+        <v>190</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2370,7 +2374,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2384,121 +2388,121 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
         <v>116</v>
       </c>
-      <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
-        <v>117</v>
-      </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
         <v>159</v>
       </c>
-      <c r="B8" t="s">
-        <v>160</v>
-      </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
         <v>161</v>
       </c>
-      <c r="B9" t="s">
-        <v>162</v>
-      </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
         <v>163</v>
       </c>
-      <c r="B10" t="s">
-        <v>164</v>
-      </c>
       <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
         <v>153</v>
       </c>
-      <c r="D10" t="s">
-        <v>154</v>
-      </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
         <v>165</v>
       </c>
-      <c r="B11" t="s">
-        <v>166</v>
-      </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2533,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2547,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -2556,21 +2560,21 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2578,16 +2582,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -2595,16 +2599,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
         <v>159</v>
       </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -2612,16 +2616,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
         <v>161</v>
       </c>
-      <c r="B6" t="s">
-        <v>162</v>
-      </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -2629,16 +2633,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
         <v>163</v>
       </c>
-      <c r="B7" t="s">
-        <v>164</v>
-      </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -2646,16 +2650,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
         <v>165</v>
       </c>
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8">
         <v>-1</v>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71961318-989F-4276-81A3-225671FB3CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B0AC66-75DA-405C-B6F3-E901B7C52F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,6 +106,24 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={64A6D6F0-6C98-4F91-AEE7-E9FE54A29CDE}</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{64A6D6F0-6C98-4F91-AEE7-E9FE54A29CDE}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    버프 적용 중일 때 출력되는 이펙트</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={54B5BA2A-77ED-42FB-A091-8CC23650A43F}</author>
     <author>tc={F490CB0D-4D20-462E-B709-D27716AF61B1}</author>
   </authors>
@@ -131,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="192">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,10 +864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Magic Misc/CFXR3 Magic Aura A (Runic).prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주사위 반감 버프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -892,6 +906,12 @@
   <si>
     <t>Coin:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Rune_Pink.prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Shiny.prefab</t>
   </si>
 </sst>
 </file>
@@ -1265,6 +1285,14 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E2" dT="2025-05-05T16:12:01.69" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{64A6D6F0-6C98-4F91-AEE7-E9FE54A29CDE}">
+    <text>버프 적용 중일 때 출력되는 이펙트</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2024-06-22T16:22:40.23" personId="{BB9FA41A-F41C-4E87-AFBE-4BA0C33E622B}" id="{54B5BA2A-77ED-42FB-A091-8CC23650A43F}">
     <text>툴 윈도우에 보이는 아이템 이름</text>
   </threadedComment>
@@ -1766,7 +1794,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2203,7 +2231,7 @@
         <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2220,7 +2248,7 @@
         <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2234,10 +2262,10 @@
         <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2254,7 +2282,7 @@
         <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2268,10 +2296,10 @@
         <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29">
         <v>1000</v>
@@ -2285,10 +2313,10 @@
         <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E30">
         <v>1000</v>
@@ -2305,7 +2333,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2354,7 +2382,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>147</v>
@@ -2363,7 +2391,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2400,7 +2428,7 @@
         <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2417,7 +2445,7 @@
         <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2434,7 +2462,7 @@
         <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2451,7 +2479,7 @@
         <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2468,7 +2496,7 @@
         <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2485,7 +2513,7 @@
         <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2502,7 +2530,7 @@
         <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2513,11 +2541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A3:A8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2576,8 +2604,8 @@
       <c r="D3" t="s">
         <v>173</v>
       </c>
-      <c r="E3">
-        <v>-1</v>
+      <c r="E3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2593,8 +2621,8 @@
       <c r="D4" t="s">
         <v>118</v>
       </c>
-      <c r="E4">
-        <v>-1</v>
+      <c r="E4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2610,8 +2638,8 @@
       <c r="D5" t="s">
         <v>174</v>
       </c>
-      <c r="E5">
-        <v>-1</v>
+      <c r="E5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2627,8 +2655,8 @@
       <c r="D6" t="s">
         <v>149</v>
       </c>
-      <c r="E6">
-        <v>-1</v>
+      <c r="E6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2644,8 +2672,8 @@
       <c r="D7" t="s">
         <v>150</v>
       </c>
-      <c r="E7">
-        <v>-1</v>
+      <c r="E7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2661,14 +2689,15 @@
       <c r="D8" t="s">
         <v>172</v>
       </c>
-      <c r="E8">
-        <v>-1</v>
+      <c r="E8" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B0AC66-75DA-405C-B6F3-E901B7C52F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9388490E-E36F-4AFB-84B0-0FD11CCFCAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isRandom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -912,6 +908,10 @@
   </si>
   <si>
     <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Shiny.prefab</t>
+  </si>
+  <si>
+    <t>isEquipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1358,7 +1358,7 @@
         <v>30000</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1369,30 +1369,30 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>50000</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>50000</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1400,13 +1400,13 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>30000</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1414,13 +1414,13 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>30000</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1428,18 +1428,18 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>30000</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1448,12 +1448,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1737,50 +1737,50 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1828,16 +1828,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1845,39 +1845,39 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
         <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1885,13 +1885,13 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1902,13 +1902,13 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>1000</v>
@@ -1919,13 +1919,13 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -1936,13 +1936,13 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -1953,13 +1953,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -1970,13 +1970,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -1987,13 +1987,13 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -2004,13 +2004,13 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -2021,13 +2021,13 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -2038,13 +2038,13 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -2055,13 +2055,13 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -2072,13 +2072,13 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
         <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -2089,13 +2089,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>1000</v>
@@ -2103,16 +2103,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -2120,16 +2120,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20">
         <v>1000</v>
@@ -2154,16 +2154,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>1000</v>
@@ -2171,16 +2171,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22">
         <v>1000</v>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23">
         <v>1000</v>
@@ -2205,16 +2205,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2239,16 +2239,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2256,16 +2256,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
         <v>158</v>
       </c>
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2273,16 +2273,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
         <v>160</v>
       </c>
-      <c r="B28" t="s">
-        <v>161</v>
-      </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2290,16 +2290,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
         <v>162</v>
       </c>
-      <c r="B29" t="s">
-        <v>163</v>
-      </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E29">
         <v>1000</v>
@@ -2307,16 +2307,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" t="s">
         <v>164</v>
       </c>
-      <c r="B30" t="s">
-        <v>165</v>
-      </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E30">
         <v>1000</v>
@@ -2332,7 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2371,27 +2371,27 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2416,121 +2416,121 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
         <v>115</v>
       </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
         <v>158</v>
       </c>
-      <c r="B8" t="s">
-        <v>159</v>
-      </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
         <v>160</v>
       </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
         <v>162</v>
       </c>
-      <c r="B10" t="s">
-        <v>163</v>
-      </c>
       <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
         <v>152</v>
       </c>
-      <c r="D10" t="s">
-        <v>153</v>
-      </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="s">
         <v>164</v>
       </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2579,118 +2579,118 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
         <v>158</v>
       </c>
-      <c r="B5" t="s">
-        <v>159</v>
-      </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
         <v>160</v>
       </c>
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
         <v>162</v>
       </c>
-      <c r="B7" t="s">
-        <v>163</v>
-      </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
         <v>164</v>
       </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2728,12 +2728,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9388490E-E36F-4AFB-84B0-0FD11CCFCAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF97474-9200-46EB-AFB2-E6B84C93DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -732,10 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/ItemIcon_Badge_Gold.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Animations/FieldItem/Box.controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -911,6 +907,10 @@
   </si>
   <si>
     <t>isEquipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/SpecialItem/Coin.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
         <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2239,16 +2239,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2256,16 +2256,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
         <v>157</v>
       </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2273,16 +2273,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
         <v>159</v>
       </c>
-      <c r="B28" t="s">
-        <v>160</v>
-      </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2290,16 +2290,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
         <v>161</v>
       </c>
-      <c r="B29" t="s">
-        <v>162</v>
-      </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E29">
         <v>1000</v>
@@ -2307,16 +2307,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
         <v>163</v>
       </c>
-      <c r="B30" t="s">
-        <v>164</v>
-      </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E30">
         <v>1000</v>
@@ -2332,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2377,21 +2377,21 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2419,7 +2419,7 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
@@ -2428,109 +2428,109 @@
         <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
         <v>157</v>
       </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
         <v>159</v>
       </c>
-      <c r="B9" t="s">
-        <v>160</v>
-      </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
         <v>161</v>
       </c>
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
       <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
         <v>151</v>
       </c>
-      <c r="D10" t="s">
-        <v>152</v>
-      </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
         <v>163</v>
       </c>
-      <c r="B11" t="s">
-        <v>164</v>
-      </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2588,109 +2588,109 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
         <v>157</v>
       </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
         <v>159</v>
       </c>
-      <c r="B6" t="s">
-        <v>160</v>
-      </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
         <v>161</v>
       </c>
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
         <v>163</v>
       </c>
-      <c r="B8" t="s">
-        <v>164</v>
-      </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF97474-9200-46EB-AFB2-E6B84C93DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93335107-376D-4578-B902-D295A18B2851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="200">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -900,18 +900,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Rune_Pink.prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Cartoon FX Remaster/CFXR Prefabs/Shiny.prefab</t>
-  </si>
-  <si>
     <t>isEquipment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/SpecialItem/Coin.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Bubbles.prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Angry.prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Happy.prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Light_Blue.prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Light_Drunk.prefab</t>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Light_Green.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Light_Orange.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Hit_C.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Very_Happy.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/JMO Assets/Stun.prefab</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -2332,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2385,7 +2413,7 @@
         <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2428,7 +2456,7 @@
         <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2445,7 +2473,7 @@
         <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2462,7 +2490,7 @@
         <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2479,7 +2507,7 @@
         <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2496,7 +2524,7 @@
         <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2513,7 +2541,7 @@
         <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2530,7 +2558,7 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2544,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2605,7 +2633,7 @@
         <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2622,7 +2650,7 @@
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2639,7 +2667,7 @@
         <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2656,7 +2684,7 @@
         <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2673,7 +2701,7 @@
         <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2690,7 +2718,7 @@
         <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93335107-376D-4578-B902-D295A18B2851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209D287D-5F50-43F2-87AE-21A81301A13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -624,10 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>두배두배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Axe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -868,30 +864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음주!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짝수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DropCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,6 +912,34 @@
   </si>
   <si>
     <t>Assets/JMO Assets/Stun.prefab</t>
+  </si>
+  <si>
+    <t>뒤로도 걸을 수 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 배로 걸을 수 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반밖에 못 걸어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤롱헤롱… 1 또는 6!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오직 홀수만!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오직 짝수만!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 멀리 갈 수 있죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1773,42 +1773,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1821,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1873,7 +1873,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -1893,7 +1893,7 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>84</v>
@@ -1913,7 +1913,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
@@ -1930,7 +1930,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -1947,7 +1947,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -1964,7 +1964,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -1981,7 +1981,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
@@ -1998,7 +1998,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -2015,7 +2015,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -2032,7 +2032,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
         <v>73</v>
@@ -2049,7 +2049,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
@@ -2066,7 +2066,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
         <v>78</v>
@@ -2083,7 +2083,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -2100,7 +2100,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
@@ -2117,7 +2117,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>89</v>
@@ -2134,7 +2134,7 @@
         <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
         <v>90</v>
@@ -2151,7 +2151,7 @@
         <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -2168,7 +2168,7 @@
         <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
@@ -2185,7 +2185,7 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
         <v>102</v>
@@ -2202,7 +2202,7 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
         <v>103</v>
@@ -2219,7 +2219,7 @@
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
         <v>104</v>
@@ -2236,13 +2236,13 @@
         <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
         <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
         <v>156</v>
       </c>
-      <c r="B27" t="s">
-        <v>157</v>
-      </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
         <v>158</v>
       </c>
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2318,16 +2318,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
         <v>160</v>
       </c>
-      <c r="B29" t="s">
-        <v>161</v>
-      </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E29">
         <v>1000</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
         <v>162</v>
       </c>
-      <c r="B30" t="s">
-        <v>163</v>
-      </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E30">
         <v>1000</v>
@@ -2405,21 +2405,21 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2430,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2447,7 +2447,7 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
@@ -2456,109 +2456,109 @@
         <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
         <v>156</v>
       </c>
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
         <v>158</v>
       </c>
-      <c r="B9" t="s">
-        <v>159</v>
-      </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
         <v>160</v>
       </c>
-      <c r="B10" t="s">
-        <v>161</v>
-      </c>
       <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
         <v>150</v>
       </c>
-      <c r="D10" t="s">
-        <v>151</v>
-      </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
         <v>162</v>
       </c>
-      <c r="B11" t="s">
-        <v>163</v>
-      </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2616,109 +2616,109 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
         <v>156</v>
       </c>
-      <c r="B5" t="s">
-        <v>157</v>
-      </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
         <v>158</v>
       </c>
-      <c r="B6" t="s">
-        <v>159</v>
-      </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
         <v>160</v>
       </c>
-      <c r="B7" t="s">
-        <v>161</v>
-      </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
         <v>162</v>
       </c>
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209D287D-5F50-43F2-87AE-21A81301A13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DCAA47-1F6E-4580-A5C7-C536319FE7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="203">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -939,6 +939,18 @@
   </si>
   <si>
     <t>더 멀리 갈 수 있죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDeBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OddDeBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvenDeBuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1821,7 +1833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -2570,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2582,10 +2594,11 @@
     <col min="2" max="2" width="48.75" customWidth="1"/>
     <col min="3" max="3" width="32.25" customWidth="1"/>
     <col min="4" max="4" width="43.75" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2601,8 +2614,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2618,8 +2634,11 @@
       <c r="E2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -2635,8 +2654,11 @@
       <c r="E3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -2652,8 +2674,11 @@
       <c r="E4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -2669,8 +2694,11 @@
       <c r="E5" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -2686,8 +2714,11 @@
       <c r="E6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -2703,8 +2734,11 @@
       <c r="E7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -2719,6 +2753,49 @@
       </c>
       <c r="E8" t="s">
         <v>183</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DCAA47-1F6E-4580-A5C7-C536319FE7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA690C44-FB33-4BEE-BBCE-7F5C9405F543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -880,40 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/JMO Assets/Bubbles.prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Angry.prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Happy.prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Light_Blue.prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Light_Drunk.prefab</t>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Light_Green.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Light_Orange.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Hit_C.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Very_Happy.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/JMO Assets/Stun.prefab</t>
-  </si>
-  <si>
     <t>뒤로도 걸을 수 있어요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -952,6 +918,36 @@
   <si>
     <t>EvenDeBuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/JMO Assets/Angry.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/JMO Assets/Very_Happy.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/JMO Assets/Happy.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/JMO Assets/Stun.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/JMO Assets/Bubbles.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/JMO Assets/Hit_C.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/JMO Assets/Light_Green.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/JMO Assets/Light_Orange.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/JMO Assets/Light_Drunk.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/JMO Assets/Light_Blue.prefab</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1498,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2267,7 @@
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2288,7 +2284,7 @@
         <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2305,7 +2301,7 @@
         <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2322,7 +2318,7 @@
         <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2339,7 +2335,7 @@
         <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E29">
         <v>1000</v>
@@ -2356,7 +2352,7 @@
         <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E30">
         <v>1000</v>
@@ -2372,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2468,7 +2464,7 @@
         <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2485,7 +2481,7 @@
         <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2502,7 +2498,7 @@
         <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2519,7 +2515,7 @@
         <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2536,7 +2532,7 @@
         <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2553,7 +2549,7 @@
         <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2570,7 +2566,7 @@
         <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2584,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2635,7 +2631,7 @@
         <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2652,7 +2648,7 @@
         <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2672,7 +2668,7 @@
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2692,7 +2688,7 @@
         <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2712,7 +2708,7 @@
         <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2732,7 +2728,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2752,7 +2748,7 @@
         <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2760,7 +2756,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>160</v>
@@ -2772,7 +2768,7 @@
         <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2780,7 +2776,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>162</v>
@@ -2792,7 +2788,7 @@
         <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2811,7 +2807,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA690C44-FB33-4BEE-BBCE-7F5C9405F543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8A50A4-1EDB-4B60-A066-D8A0FE3C07DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="204">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -844,26 +844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주사위 두 배 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사위 음수 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사위 반감 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀수 주사위 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짝수 주사위 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DropCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -880,18 +860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뒤로도 걸을 수 있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 배로 걸을 수 있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반밖에 못 걸어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>헤롱헤롱… 1 또는 6!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -948,6 +916,42 @@
   </si>
   <si>
     <t>Assets/Bundles/JMO Assets/Light_Blue.prefab</t>
+  </si>
+  <si>
+    <t>상한 슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젤리가 아니라 슬라임! 뒤로 걷게 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2 호박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/2 호박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩐지 힘이 나서 두 배로 걸을 수 있어요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩐지 힘이 빠져서 반밖에 못 걸어요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸구려 와인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>246 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1374,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -1498,7 +1502,7 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1829,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2264,10 +2268,10 @@
         <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2281,10 +2285,10 @@
         <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2298,10 +2302,10 @@
         <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2315,10 +2319,10 @@
         <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2332,10 +2336,10 @@
         <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E29">
         <v>1000</v>
@@ -2349,10 +2353,10 @@
         <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E30">
         <v>1000</v>
@@ -2368,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9D8DF-8F98-4A33-894A-DEBD309AB1D5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2418,16 +2422,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2464,7 +2468,7 @@
         <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2481,7 +2485,7 @@
         <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2498,7 +2502,7 @@
         <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2515,7 +2519,7 @@
         <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2532,7 +2536,7 @@
         <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2549,7 +2553,7 @@
         <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2566,7 +2570,7 @@
         <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2635,7 @@
         <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2648,7 +2652,7 @@
         <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2668,7 +2672,7 @@
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2688,7 +2692,7 @@
         <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2708,7 +2712,7 @@
         <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2728,7 +2732,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2748,7 +2752,7 @@
         <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2756,7 +2760,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
         <v>160</v>
@@ -2768,7 +2772,7 @@
         <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2776,7 +2780,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
         <v>162</v>
@@ -2788,7 +2792,7 @@
         <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F10">
         <v>0</v>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8A50A4-1EDB-4B60-A066-D8A0FE3C07DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD6C247-3204-4361-8203-6FDDF020007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="229">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,22 +359,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이름 모를 해적의 원한이 담긴 검 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티 쨩이 쓰던 노란 머리끈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shopItemDescription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>얼마 전까지 제가 쓰던\n머리띠에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마력이 느껴지는 푸른 검\n이랍니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,118 +374,14 @@
     <t>TwinDagger_L</t>
   </si>
   <si>
-    <t>유니티짱 바디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유코 바디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키 바디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티짱이 좋아하는 옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유코가 매일 입는 옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키가 매일 입는 옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제가 제일 좋아하는 옷이에요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유코는 항상 겉옷을 입고 다녀요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키는 매일 이것만 입더라고요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티짱 페이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유코 페이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키 페이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티짱 눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티짱의 활기찬 표정!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유코 눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키 눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑고 푸른 눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>차분한 눈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맑고 깊은 눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티짱 헤어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유코 헤어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키 헤어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단정한 반묶음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀여운 양갈래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차분한 숏컷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핑크 베놈 단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이스트 댓 핑크 베놈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블랙 핑크 인 유어 에리아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YucoAccessory</t>
   </si>
   <si>
@@ -516,22 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>귀가 네 개가 된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상냥한 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 생각을 하는지 알 수 없는 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패션 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sellPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,30 +428,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유니티짱 프로필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키 프로필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메리 크리스마스!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>으스스한 분위기를 줄 수 있는 프레임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니티짱의 초상화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키의 초상화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isFrame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -951,6 +799,243 @@
   </si>
   <si>
     <t>246 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작고 날렵한 쌍검이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 모를 해적의 원한이 담긴 검.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날에 독이 발린 단검 두 자루.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐주얼 셋업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예쁜데 편하기까지 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 세일러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시원한 세일러 스타일. 어디선가 바다 내음이 나는 것 같기도…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카디건 세일러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람 불 때는 카디건 한 장!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또렷한 얼굴</t>
+  </si>
+  <si>
+    <t>또렷한 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상냥한 얼굴</t>
+  </si>
+  <si>
+    <t>상냥한 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍한 얼굴</t>
+  </si>
+  <si>
+    <t>멍한 얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 똘망한 표정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 생각을 하는지 알 수 없는 표정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분한 표정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 눈</t>
+  </si>
+  <si>
+    <t>푸른 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은 눈</t>
+  </si>
+  <si>
+    <t>맑은 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분한 눈</t>
+  </si>
+  <si>
+    <t>오묘한 빛의 푸른 눈.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨끗하게 맑게 자신있게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양갈래 헤어</t>
+  </si>
+  <si>
+    <t>양갈래 헤어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숏컷 헤어</t>
+  </si>
+  <si>
+    <t>숏컷 헤어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반묶음 헤어</t>
+  </si>
+  <si>
+    <t>반묶음 헤어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊고 차분한 눈.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀여운 양갈래.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분한 숏컷.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단정한 반묶음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크 패션 포인트!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀가 네 개가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 떠 있는지는 비밀입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금발 소녀 프로필</t>
+  </si>
+  <si>
+    <t>금발 소녀 프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루넷 소녀 프로필</t>
+  </si>
+  <si>
+    <t>브루넷 소녀 프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으스스한 분위기를 줄 수 있는 프레임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌활한 금발 소녀의 초상화.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상냥한 브루넷 소녀의 초상화.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠자리채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크 베놈 대거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편하고 가벼운 옷이죠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서늘할 때는 겉옷을 걸치는 것도 좋죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_C.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_D.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_E.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_F.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/ItemIcon/Prop_G.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 머리띠</t>
+  </si>
+  <si>
+    <t>리본 헤어핀</t>
+  </si>
+  <si>
+    <t>크리스마스 프레임</t>
+  </si>
+  <si>
+    <t>박쥐 프레임</t>
+  </si>
+  <si>
+    <t>얼마 전까지 제가 쓰던\n머리띠예요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1344,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1378,27 +1463,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1406,7 +1491,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1415,7 +1500,7 @@
         <v>50000</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
@@ -1423,7 +1508,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1432,78 +1517,361 @@
         <v>50000</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>30000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>30000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>30000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>30000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>30000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>30000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>30000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>30000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>30000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>30000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>30000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>30000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>30000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>30000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>30000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>30000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>30000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>30000</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C29">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
-        <v>181</v>
-      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1737,7 +2105,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1777,50 +2145,50 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1831,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1877,7 +2245,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1885,13 +2253,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -1902,16 +2270,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -1922,16 +2290,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1939,16 +2307,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="E6">
         <v>1000</v>
@@ -1956,16 +2324,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -1973,16 +2341,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -1990,16 +2358,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -2007,16 +2375,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -2024,16 +2392,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -2041,16 +2409,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -2058,16 +2426,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -2075,16 +2443,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -2092,16 +2460,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -2109,16 +2477,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -2126,50 +2494,50 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E17">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>87</v>
+      <c r="A18" t="s">
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="E18">
         <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -2177,16 +2545,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="E20">
         <v>1000</v>
@@ -2194,16 +2562,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>1000</v>
@@ -2211,50 +2579,50 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E22">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>100</v>
+      <c r="A23" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E23">
         <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>114</v>
+      <c r="A24" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2262,16 +2630,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>1000</v>
@@ -2279,16 +2647,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2296,16 +2664,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2313,16 +2681,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2330,16 +2698,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="E29">
         <v>1000</v>
@@ -2347,18 +2715,103 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
         <v>161</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" t="s">
         <v>162</v>
       </c>
-      <c r="C30" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30">
+      <c r="E32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35">
         <v>1000</v>
       </c>
     </row>
@@ -2394,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2411,27 +2864,27 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -2442,7 +2895,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2456,121 +2909,121 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
         <v>114</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
         <v>152</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2606,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2623,36 +3076,36 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2660,19 +3113,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
         <v>148</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>186</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2680,19 +3133,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2700,19 +3153,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2720,19 +3173,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2740,19 +3193,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2760,19 +3213,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2780,19 +3233,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2833,12 +3286,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2846,7 +3299,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2854,7 +3307,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2862,7 +3315,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD6C247-3204-4361-8203-6FDDF020007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FA0CD5-59C8-4AD6-AFF5-7EAD755BCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,237 +149,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="239">
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>itemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>partsType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CharacterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>characterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Accessory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UnityChan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CharacterPartsType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PropType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>propType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GreatSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UnityChanAccessory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>fieldIconAssetPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#상점템 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#무기 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actionParameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UnityChanAccessory:30/GreatSword:70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YucoAccessory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MisakiAccessory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Yuco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Misaki</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UnityChanBody</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YucoBody</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MisakiBody</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UnityChanHair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Hair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YucoHair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MisakiHair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UnityChanEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Eye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># CharacterType : UnityChan, Yuco, Misaki</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># CharacterPartsType : Body / Accessory / Hair / Eye / Face</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># 무기 제외한 장비 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YucoEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MisakiEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Face</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UnityChanFace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YucoFace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MisakiFace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>iconAssetPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># 모든 아이템의 아이콘 지정해줌 (상점/인벤 상관 없음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># itemCode로 고유 값 구별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># isRandom 1이면 가챠아이템, 0이면 일반 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>itemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>푸른 원한의 소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>itemDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>shopItemDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>마력이 느껴지는 푸른 검\n이랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TwinDagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TwinDagger_L</t>
   </si>
   <si>
     <t>제가 제일 좋아하는 옷이에요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>차분한 눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>YucoAccessory</t>
@@ -389,351 +389,351 @@
   </si>
   <si>
     <t>노란 머리띠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고양이 머리띠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>리본 헤어핀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sellPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Frame_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Frame_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Profile_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Profile_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>크리스마스 프레임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>박쥐 프레임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>메리 크리스마스!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>isFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FieldActionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>바나나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>맛있는 바나나!\n… 를 먹고 남은 껍질이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Barricade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Min:-100/Max:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BuffActionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>*:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>buffIconAssetPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Axe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PickAx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Shovel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Umbrella</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/Profile/Profile_01.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/Profile/Profile_02.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/Profile/Frame_01.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/Profile/Frame_02.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Acc_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Acc_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Acc_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Hair_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Hair_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Hair_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Eye_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Eye_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Eye_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Face_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Face_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Prop_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Prop_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Costume_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Costume_B.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Costume_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Face_A.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Animations/FieldItem/Box.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OneOrSix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Odd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NextDiceOperationBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NextDiceChangeBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Min:-100/Max:100/Odd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>effectPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/SpecialItem/Barricade.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/SpecialItem/DoubleDiceBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/SpecialItem/MinusDiceBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HalfDiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/SpecialItem/HalfDiceBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DrunkBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/SpecialItem/DrunkBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OddBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/SpecialItem/OddBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EvenBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/SpecialItem/EvenBuff.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Min:-100/Max:100/*:-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Min:-100/Max:100/Even</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Min:-100/Max:100/OneOrSix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Min:-100/Max:100/*:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Min:-100/Max:100/*:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MinusDiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Even</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>*:-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>*:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DoubleDiceBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>낙상 주의! 밟으면 무조건 넘어집니다. 무조건!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DropCoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Coin:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>isEquipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/SpecialItem/Coin.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>헤롱헤롱… 1 또는 6!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오직 홀수만!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오직 짝수만!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>더 멀리 갈 수 있죠!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>isDeBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OddDeBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EvenDeBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Bundles/JMO Assets/Angry.prefab</t>
@@ -767,288 +767,351 @@
   </si>
   <si>
     <t>상한 슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>젤리가 아니라 슬라임! 뒤로 걷게 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>x2 호박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/2 호박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>어쩐지 힘이 나서 두 배로 걸을 수 있어요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>어쩐지 힘이 빠져서 반밖에 못 걸어요…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>싸구려 와인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>135 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>246 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>작고 날렵한 쌍검이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이름 모를 해적의 원한이 담긴 검.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>날에 독이 발린 단검 두 자루.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>캐주얼 셋업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예쁜데 편하기까지 하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>여름 세일러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시원한 세일러 스타일. 어디선가 바다 내음이 나는 것 같기도…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>카디건 세일러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>바람 불 때는 카디건 한 장!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>또렷한 얼굴</t>
-  </si>
-  <si>
-    <t>또렷한 얼굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상냥한 얼굴</t>
-  </si>
-  <si>
-    <t>상냥한 얼굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>멍한 얼굴</t>
-  </si>
-  <si>
-    <t>멍한 얼굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>아주 똘망한 표정.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>무슨 생각을 하는지 알 수 없는 표정.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>차분한 표정.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>푸른 눈</t>
-  </si>
-  <si>
-    <t>푸른 눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>맑은 눈</t>
-  </si>
-  <si>
-    <t>맑은 눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차분한 눈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오묘한 빛의 푸른 눈.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>깨끗하게 맑게 자신있게!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>양갈래 헤어</t>
-  </si>
-  <si>
-    <t>양갈래 헤어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>숏컷 헤어</t>
-  </si>
-  <si>
-    <t>숏컷 헤어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>반묶음 헤어</t>
-  </si>
-  <si>
-    <t>반묶음 헤어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깊고 차분한 눈.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>귀여운 양갈래.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>차분한 숏컷.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>단정한 반묶음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>핑크 패션 포인트!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>귀가 네 개가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>어떻게 떠 있는지는 비밀입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>금발 소녀 프로필</t>
-  </si>
-  <si>
-    <t>금발 소녀 프로필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>브루넷 소녀 프로필</t>
-  </si>
-  <si>
-    <t>브루넷 소녀 프로필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>으스스한 분위기를 줄 수 있는 프레임.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>쾌활한 금발 소녀의 초상화.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상냥한 브루넷 소녀의 초상화.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>도끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>곡괭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>삽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>우산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>잠자리채</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>핑크 베놈 대거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>편하고 가벼운 옷이죠!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서늘할 때는 겉옷을 걸치는 것도 좋죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Prop_C.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Prop_D.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Prop_E.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Prop_F.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sprites/ItemIcon/Prop_G.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이 머리띠</t>
-  </si>
-  <si>
-    <t>리본 헤어핀</t>
-  </si>
-  <si>
-    <t>크리스마스 프레임</t>
-  </si>
-  <si>
-    <t>박쥐 프레임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>얼마 전까지 제가 쓰던\n머리띠예요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양손으로 잘 붙잡으셔야 해요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광물이라도 캐러 가야 할 것 같죠?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 함부로 바닥 파시면 안 돼요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비도 햇빛도 모두 막아줘요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별도 딸 수 있을 것 같은데요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기요… 멍 때리지 마세요!\n저기요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로워 보이지만\n사실 마음만큼은 따뜻할지도…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캬엉캬옹!\n어머, 죄송해요…...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐더라… 벌레 코어?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 분위기를 내 봐요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할로윈 분위기를 내 봐요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저랑 닮은 것 같지 않아요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색으로 염색할까…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 머리랑 똑같네요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저도 머리가 짧았던 적이 있는데… 다시 기르는 데에 한참 걸렸어요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔끔하고 단정하죠?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제게만은 따뜻하겠죠…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊고 차분한 눈. 다이빙 금지!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색인가, 파란색인가…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영도 할 수 있을 것 같은데요…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티 없이 깨끗한 눈빛!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>튼튼한 도끼. 벌목 금지!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뾰족한 곡괭이. 채광 금지!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업용 삽. 땅은 파도 됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비가 오나 눈이 오나 든든한 우산.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠자리채로 잡을 수 있는 건 잠자리 뿐만이 아니라는 걸…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1067,12 +1130,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1084,14 +1153,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - 강조색2" xfId="1" builtinId="34"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1432,7 +1506,10 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1445,30 +1522,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1517,7 +1594,7 @@
         <v>50000</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1531,7 +1608,7 @@
         <v>50000</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1545,7 +1622,7 @@
         <v>50000</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1559,7 +1636,7 @@
         <v>50000</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1573,7 +1650,7 @@
         <v>50000</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1601,7 +1678,7 @@
         <v>30000</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1615,7 +1692,7 @@
         <v>30000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1629,7 +1706,7 @@
         <v>30000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1643,7 +1720,7 @@
         <v>30000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1657,7 +1734,7 @@
         <v>30000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1671,7 +1748,7 @@
         <v>30000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,7 +1762,7 @@
         <v>30000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,7 +1776,7 @@
         <v>30000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,7 +1790,7 @@
         <v>30000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,7 +1804,7 @@
         <v>30000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1741,7 +1818,7 @@
         <v>30000</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1755,7 +1832,7 @@
         <v>30000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,7 +1846,7 @@
         <v>30000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1783,7 +1860,7 @@
         <v>30000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1797,7 +1874,7 @@
         <v>30000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,7 +1888,7 @@
         <v>30000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1825,7 +1902,7 @@
         <v>30000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,7 +1916,7 @@
         <v>30000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1874,7 +1951,7 @@
       <c r="D36" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1884,7 +1961,10 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1899,24 +1979,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2095,7 +2175,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2105,7 +2185,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2117,18 +2197,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2192,7 +2272,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2202,7 +2282,10 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E9"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2215,36 +2298,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2276,7 +2359,7 @@
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
         <v>168</v>
@@ -2293,13 +2376,13 @@
         <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -2310,13 +2393,13 @@
         <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="E6">
         <v>1000</v>
@@ -2327,13 +2410,13 @@
         <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -2344,13 +2427,13 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -2361,13 +2444,13 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -2432,10 +2515,10 @@
         <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -2449,10 +2532,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -2466,10 +2549,10 @@
         <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -2483,10 +2566,10 @@
         <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -2503,7 +2586,7 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="E17">
         <v>1000</v>
@@ -2517,10 +2600,10 @@
         <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -2534,10 +2617,10 @@
         <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -2551,10 +2634,10 @@
         <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E20">
         <v>1000</v>
@@ -2568,10 +2651,10 @@
         <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E21">
         <v>1000</v>
@@ -2588,7 +2671,7 @@
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E22">
         <v>1000</v>
@@ -2605,7 +2688,7 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E23">
         <v>1000</v>
@@ -2622,7 +2705,7 @@
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E24">
         <v>1000</v>
@@ -2656,7 +2739,7 @@
         <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2670,10 +2753,10 @@
         <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2687,10 +2770,10 @@
         <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2816,7 +2899,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2826,7 +2909,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2840,36 +2926,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3027,7 +3113,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3037,57 +3123,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1"/>
-    <col min="2" max="2" width="48.75" customWidth="1"/>
-    <col min="3" max="3" width="32.25" customWidth="1"/>
-    <col min="4" max="4" width="43.75" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
     <col min="6" max="6" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3252,7 +3338,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3264,7 +3350,10 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3274,18 +3363,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3322,7 +3411,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FA0CD5-59C8-4AD6-AFF5-7EAD755BCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9374FB21-50A4-43DA-BFB1-D7778C882F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="261">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1091,6 +1091,84 @@
   </si>
   <si>
     <t>잠자리채로 잡을 수 있는 건 잠자리 뿐만이 아니라는 걸…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile_03</t>
+  </si>
+  <si>
+    <t>Profile_04</t>
+  </si>
+  <si>
+    <t>Profile_05</t>
+  </si>
+  <si>
+    <t>Profile_06</t>
+  </si>
+  <si>
+    <t>Profile_07</t>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_03.png</t>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_04.png</t>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_05.png</t>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_06.png</t>
+  </si>
+  <si>
+    <t>Sprites/Profile/Profile_07.png</t>
+  </si>
+  <si>
+    <t>금발 소녀 낙서 프로필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 소녀 낙서 프로필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금발 소녀 프로필 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브루넷 소녀 프로필 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금발 소녀 프로필 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌활한 금발 소녀를 낙서한 그림.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상냥한 브루넷 소녀를 낙서한 그림.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 그린 걸까요? 귀엽다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 그렸을까요? 귀엽네요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저랑 닮았다니까요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 갈색으로 염색해야겠어요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 저 맞죠!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1503,25 +1581,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1549,7 +1627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1583,7 +1661,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1597,7 +1675,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1611,7 +1689,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1625,7 +1703,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1639,7 +1717,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1653,7 +1731,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1667,7 +1745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1681,7 +1759,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1695,7 +1773,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1709,7 +1787,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1723,7 +1801,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1737,7 +1815,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1751,7 +1829,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1765,7 +1843,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1779,7 +1857,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1793,7 +1871,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1807,7 +1885,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1899,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1835,7 +1913,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1849,7 +1927,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -1863,7 +1941,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1877,7 +1955,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1891,7 +1969,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1905,7 +1983,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -1919,36 +1997,103 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>30000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>30000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>30000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>30000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>30000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>76</v>
       </c>
-      <c r="B29">
+      <c r="B34">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="C34">
         <v>100</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>134</v>
       </c>
-      <c r="B30">
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C35">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D35" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1967,18 +2112,18 @@
       <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.69921875" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2000,7 +2145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2011,7 +2156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2025,7 +2170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2039,7 +2184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2053,7 +2198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2064,7 +2209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2075,7 +2220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2086,7 +2231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2097,7 +2242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2108,7 +2253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2119,7 +2264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2130,7 +2275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2141,7 +2286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2152,7 +2297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2163,7 +2308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2188,15 +2333,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2212,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2223,7 +2368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2231,7 +2376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2239,7 +2384,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2247,7 +2392,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2255,7 +2400,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -2263,7 +2408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2279,25 +2424,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="38.25" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2331,7 +2476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2351,7 +2496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2371,7 +2516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2388,7 +2533,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2405,7 +2550,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2422,7 +2567,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -2439,7 +2584,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2456,7 +2601,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2473,7 +2618,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2490,7 +2635,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2507,7 +2652,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2524,7 +2669,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2541,7 +2686,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2558,7 +2703,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2575,7 +2720,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2592,7 +2737,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2609,7 +2754,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2626,7 +2771,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2643,7 +2788,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2660,7 +2805,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2677,7 +2822,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -2694,7 +2839,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -2711,7 +2856,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2728,7 +2873,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2745,7 +2890,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2762,7 +2907,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2779,122 +2924,207 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
         <v>114</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
         <v>74</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D34" t="s">
         <v>135</v>
       </c>
-      <c r="E29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="E34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>130</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B35" t="s">
         <v>116</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" t="s">
         <v>157</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D35" t="s">
         <v>158</v>
       </c>
-      <c r="E30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="E35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>134</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>115</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
         <v>159</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D36" t="s">
         <v>161</v>
       </c>
-      <c r="E31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="E36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>117</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
         <v>118</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C37" t="s">
         <v>160</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D37" t="s">
         <v>162</v>
       </c>
-      <c r="E32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="E37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>119</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>120</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>163</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D38" t="s">
         <v>140</v>
       </c>
-      <c r="E33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="E38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>121</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B39" t="s">
         <v>122</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>164</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D39" t="s">
         <v>141</v>
       </c>
-      <c r="E34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="E39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>123</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
         <v>124</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>165</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D40" t="s">
         <v>142</v>
       </c>
-      <c r="E35">
+      <c r="E40">
         <v>1000</v>
       </c>
     </row>
@@ -2915,17 +3145,17 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="60.75" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
+    <col min="2" max="2" width="60.69921875" customWidth="1"/>
+    <col min="3" max="3" width="33.09765625" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2959,7 +3189,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -2976,7 +3206,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2993,7 +3223,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -3010,7 +3240,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -3027,7 +3257,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -3044,7 +3274,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -3061,7 +3291,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -3078,7 +3308,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3095,7 +3325,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3123,21 +3353,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934374DB-F0BD-4821-AE1A-0C6F13501D06}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="40.75" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="33.375" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="2" max="2" width="40.69921875" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" customWidth="1"/>
+    <col min="5" max="5" width="36.19921875" customWidth="1"/>
+    <col min="6" max="6" width="33.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3157,7 +3387,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3177,7 +3407,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -3197,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -3217,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3237,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3257,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -3277,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -3297,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -3317,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -3347,22 +3577,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AD892-11F9-4283-B8F4-46E0E23154A5}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="27.8984375" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3370,7 +3600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3378,7 +3608,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -3386,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3394,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -3402,11 +3632,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>67</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
     </row>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD6C247-3204-4361-8203-6FDDF020007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C459550-DF1D-415E-BA05-7D21BA7DFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1600,8 +1600,8 @@
       <c r="C11">
         <v>30000</v>
       </c>
-      <c r="D11" t="s">
-        <v>218</v>
+      <c r="D11" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1614,8 +1614,8 @@
       <c r="C12">
         <v>30000</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>217</v>
+      <c r="D12" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2201,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C459550-DF1D-415E-BA05-7D21BA7DFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD6C247-3204-4361-8203-6FDDF020007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1600,8 +1600,8 @@
       <c r="C11">
         <v>30000</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>217</v>
+      <c r="D11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1614,8 +1614,8 @@
       <c r="C12">
         <v>30000</v>
       </c>
-      <c r="D12" t="s">
-        <v>218</v>
+      <c r="D12" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2201,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12247E9-C6A0-42EC-8B14-015B5DEEB4B9}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excels/ItemTable.xlsx
+++ b/Excels/ItemTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SebamoScript\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoScript\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9374FB21-50A4-43DA-BFB1-D7778C882F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EC0586-16E9-472F-9FA5-D0FD8BBF7096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemData" sheetId="5" r:id="rId1"/>
@@ -1583,23 +1583,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969A02-34CD-4BA6-8116-7560105EAFC3}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" customWidth="1"/>
-    <col min="4" max="4" width="33.59765625" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1755,11 +1755,12 @@
       <c r="C11">
         <v>30000</v>
       </c>
-      <c r="D11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1769,11 +1770,11 @@
       <c r="C12">
         <v>30000</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>240</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>241</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>243</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -2112,18 +2113,18 @@
       <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" customWidth="1"/>
-    <col min="2" max="2" width="38.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2333,15 +2334,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2427,22 +2428,22 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="25.8984375" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>240</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>241</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>243</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -3145,17 +3146,17 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" customWidth="1"/>
-    <col min="2" max="2" width="60.69921875" customWidth="1"/>
-    <col min="3" max="3" width="33.09765625" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="60.75" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3357,17 +3358,17 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" customWidth="1"/>
-    <col min="2" max="2" width="40.69921875" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" customWidth="1"/>
-    <col min="5" max="5" width="36.19921875" customWidth="1"/>
-    <col min="6" max="6" width="33.3984375" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -3579,20 +3580,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452AD892-11F9-4283-B8F4-46E0E23154A5}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.8984375" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3600,7 +3601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>243</v>
       </c>
